--- a/admin/Aung_Admin_Product.xlsx
+++ b/admin/Aung_Admin_Product.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="107">
   <si>
     <t>Project Name</t>
   </si>
@@ -280,6 +280,123 @@
   <si>
     <t>When admin click this plus sign box,each category will appear with lable input and detail input tag.Admin click limit count is six categories and after that plus sign box will fade.
 When admin click one of category delete button plus sign box back to appear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user access this address  http://127.0.0.1:8000/productList this page will show.
+</t>
+  </si>
+  <si>
+    <t>Avaliable product background color is green.</t>
+  </si>
+  <si>
+    <t>When user access this address http://127.0.0.1:8000/product/id/edit page will show. 
+If id is not exist this page will go to error page.</t>
+  </si>
+  <si>
+    <t>When admin access this address  http://127.0.0.1:8000/product this page will show.</t>
+  </si>
+  <si>
+    <t>add button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When admin click this add buttton , page will transfer to product add page.
+</t>
+  </si>
+  <si>
+    <t>pagination button</t>
+  </si>
+  <si>
+    <t>When product count is over 10 items, admin can click this button for next 10 items.</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>When admin click to this label,page will transfer to http://127.0.0.1:8000/dashboard</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>When admin click to this label,page will transfer to http://127.0.0.1:8000/orderTransaction</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>When admin click to this label,page will transfer to http://127.0.0.1:8000/customerInfo</t>
+  </si>
+  <si>
+    <t>Coin</t>
+  </si>
+  <si>
+    <t>When admin click to this label, page will transfer to http://127.0.0.1:8000/coinListing</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>When admin click to this label,page will transfer to http://127.0.0.1:8000/dailyChart</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>When admin click to this label,page will reoad and no transfer to other page.</t>
+  </si>
+  <si>
+    <t>When admin click to this label,page will transfer to http://127.0.0.1:8000/adminLogin</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Logout button</t>
+  </si>
+  <si>
+    <t>When admin click to this button, page will transfer to http://127.0.0.1:8000/admin and relogin.</t>
+  </si>
+  <si>
+    <t>When admin click to this label,page will transfer to http://127.0.0.1:8000/productList.</t>
+  </si>
+  <si>
+    <t>Product table list will show following sql qurey;
+ DB::table('m_product')
+            -&gt;select('*', DB::raw('m_product.id AS pid'))
+            -&gt;join('m_fav_type', 'm_fav_type.id', '=', 'm_product.product_type')
+            -&gt;join('m_taste', 'm_taste.id', '=', 'm_product.product_taste')
+            -&gt;where('m_product.del_flg', 0)
+            -&gt;orderBy('avaliable','DESC')
+            -&gt;paginate(10);</t>
+  </si>
+  <si>
+    <t>After filling all form data when admin click this button data insert with following sql qurey;
+First get rate from following sql;
+SELECT * FROM m_ad_coinrate ORDER BY id DESC LIMIT 1 and multiply with request coin that answer will be inserted to amount for m_product colum field.
+INSERT INTO m_product  (product_name, product_type, product_taste,coin, amount,list,description,avaliable, del_flg,created_at,updated_at ) VALUES ( :pname, :ptype,:ptaste,:coin,:amount,:list,:pdesc,:image,:avaliable,:del_flg, :created_at,updated_at)
+image will be stored with following sql query;
+INSERT INTO t_ad_photo (link_id,order_id,path,note) VALUES (:productId,$order,$filepath,"Food Image")
+product detail data insert with following sql query;
+INSERT INTO m_product_detail(category,label,order,value,product_id) VALUES
+($category,$label,$order,$value,$product-&gt;id). If admin not click plus sign box ,this sql query not work for m_product_detail model.
+#######################
+Step 1 : First one photo is main photo for product and other is not necessary to add.
+Step 2: fill all input forms in product add field.
+Step 3 : Option (admin want to add about product detail  click plus sign box and fill these category).
+Step 4 : Click to Submit
+Step 5:  After submitting ,page will goes to product list table.
+#######################
+In current state, Recently added new product will show in product page following sql qurey;
+DB::table('m_product')
+            -&gt;select('*', DB::raw('m_product.id AS pid'))
+            -&gt;join('m_fav_type', 'm_fav_type.id', '=', 'm_product.product_type')
+            -&gt;join('m_taste', 'm_taste.id', '=', 'm_product.product_taste')
+            -&gt;where('m_product.del_flg', 0)
+            -&gt;orderBy('avaliable','DESC')
+            -&gt;paginate(10);</t>
+  </si>
+  <si>
+    <t>Food Lab</t>
   </si>
   <si>
     <t xml:space="preserve">After filling and editing all form data,admin click this button data update with following sql qurey;
@@ -320,118 +437,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">When user access this address  http://127.0.0.1:8000/productList this page will show.
-</t>
-  </si>
-  <si>
-    <t>Avaliable product background color is green.</t>
-  </si>
-  <si>
-    <t>When user access this address http://127.0.0.1:8000/product/id/edit page will show. 
-If id is not exist this page will go to error page.</t>
-  </si>
-  <si>
-    <t>When admin access this address  http://127.0.0.1:8000/product this page will show.</t>
-  </si>
-  <si>
-    <t>add button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When admin click this add buttton , page will transfer to product add page.
-</t>
-  </si>
-  <si>
-    <t>pagination button</t>
-  </si>
-  <si>
-    <t>When product count is over 10 items, admin can click this button for next 10 items.</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>When admin click to this label,page will transfer to http://127.0.0.1:8000/dashboard</t>
-  </si>
-  <si>
-    <t>Transaction</t>
-  </si>
-  <si>
-    <t>When admin click to this label,page will transfer to http://127.0.0.1:8000/orderTransaction</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>When admin click to this label,page will transfer to http://127.0.0.1:8000/customerInfo</t>
-  </si>
-  <si>
-    <t>Coin</t>
-  </si>
-  <si>
-    <t>When admin click to this label, page will transfer to http://127.0.0.1:8000/coinListing</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>When admin click to this label,page will transfer to http://127.0.0.1:8000/dailyChart</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>When admin click to this label,page will reoad and no transfer to other page.</t>
-  </si>
-  <si>
-    <t>When admin click to this label,page will transfer to http://127.0.0.1:8000/adminLogin</t>
-  </si>
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>Logout button</t>
-  </si>
-  <si>
-    <t>When admin click to this button, page will transfer to http://127.0.0.1:8000/admin and relogin.</t>
-  </si>
-  <si>
-    <t>When admin click to this label,page will transfer to http://127.0.0.1:8000/productList.</t>
-  </si>
-  <si>
-    <t>Product table list will show following sql qurey;
- DB::table('m_product')
-            -&gt;select('*', DB::raw('m_product.id AS pid'))
-            -&gt;join('m_fav_type', 'm_fav_type.id', '=', 'm_product.product_type')
-            -&gt;join('m_taste', 'm_taste.id', '=', 'm_product.product_taste')
-            -&gt;where('m_product.del_flg', 0)
-            -&gt;orderBy('avaliable','DESC')
-            -&gt;paginate(10);</t>
-  </si>
-  <si>
-    <t>After filling all form data when admin click this button data insert with following sql qurey;
-First get rate from following sql;
-SELECT * FROM m_ad_coinrate ORDER BY id DESC LIMIT 1 and multiply with request coin that answer will be inserted to amount for m_product colum field.
-INSERT INTO m_product  (product_name, product_type, product_taste,coin, amount,list,description,avaliable, del_flg,created_at,updated_at ) VALUES ( :pname, :ptype,:ptaste,:coin,:amount,:list,:pdesc,:image,:avaliable,:del_flg, :created_at,updated_at)
-image will be stored with following sql query;
-INSERT INTO t_ad_photo (link_id,order_id,path,note) VALUES (:productId,$order,$filepath,"Food Image")
-product detail data insert with following sql query;
-INSERT INTO m_product_detail(category,label,order,value,product_id) VALUES
-($category,$label,$order,$value,$product-&gt;id). If admin not click plus sign box ,this sql query not work for m_product_detail model.
-#######################
-Step 1 : First one photo is main photo for product and other is not necessary to add.
-Step 2: fill all input forms in product add field.
-Step 3 : Option (admin want to add about product detail  click plus sign box and fill these category).
-Step 4 : Click to Submit
-Step 5:  After submitting ,page will goes to product list table.
-#######################
-In current state, Recently added new product will show in product page following sql qurey;
-DB::table('m_product')
-            -&gt;select('*', DB::raw('m_product.id AS pid'))
-            -&gt;join('m_fav_type', 'm_fav_type.id', '=', 'm_product.product_type')
-            -&gt;join('m_taste', 'm_taste.id', '=', 'm_product.product_taste')
-            -&gt;where('m_product.del_flg', 0)
-            -&gt;orderBy('avaliable','DESC')
-            -&gt;paginate(10);</t>
+    <t>2022/03/02</t>
+  </si>
+  <si>
+    <t>2022/03/04</t>
+  </si>
+  <si>
+    <t>2022/03/03</t>
   </si>
 </sst>
 </file>
@@ -441,7 +453,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -450,28 +462,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="36"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -491,6 +482,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -501,13 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,14 +797,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -808,59 +807,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -871,106 +875,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1287,15 +1312,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R451"/>
+  <dimension ref="A1:R452"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:L7"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="12" max="12" width="16.625" customWidth="1"/>
@@ -1306,542 +1329,540 @@
     <col min="17" max="17" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="1" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="12">
+      <c r="P2" s="54">
         <v>44501</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="2" t="s">
+    <row r="3" spans="1:18" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P3" s="57">
         <v>44501</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" t="s">
+      <c r="Q3" s="58"/>
+      <c r="R3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B5" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="7" t="s">
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q5" s="66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
+    <row r="6" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="67"/>
+      <c r="B6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="7" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P6" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q6" s="66" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
+    <row r="7" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="43" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+    </row>
+    <row r="8" spans="1:18" ht="172.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-    </row>
-    <row r="7" spans="1:18" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42">
-        <v>2</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-    </row>
-    <row r="8" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="42">
-        <v>3</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-    </row>
-    <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <v>4</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B10" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="46" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-    </row>
-    <row r="10" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
-        <v>5</v>
-      </c>
-      <c r="B10" s="36" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="43" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>6</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-    </row>
-    <row r="11" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="48">
-        <v>6</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-    </row>
-    <row r="12" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
-        <v>7</v>
-      </c>
-      <c r="B12" s="36" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="43" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>8</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-    </row>
-    <row r="13" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42">
-        <v>8</v>
-      </c>
-      <c r="B13" s="36" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="43" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>9</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-    </row>
-    <row r="14" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
-        <v>9</v>
-      </c>
-      <c r="B14" s="36" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="43" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>10</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-    </row>
-    <row r="15" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42">
-        <v>10</v>
-      </c>
-      <c r="B15" s="36" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="43" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>11</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-    </row>
-    <row r="16" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42">
-        <v>11</v>
-      </c>
-      <c r="B16" s="36" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="43" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+    </row>
+    <row r="18" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>12</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-    </row>
-    <row r="17" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42">
-        <v>12</v>
-      </c>
-      <c r="B17" s="36" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="43" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>13</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-    </row>
-    <row r="18" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42">
-        <v>13</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-    </row>
-    <row r="19" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-    </row>
-    <row r="20" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+    </row>
+    <row r="20" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1853,25 +1874,25 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -1883,31 +1904,31 @@
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" ht="362.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="362.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
@@ -3128,1350 +3149,1325 @@
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451"/>
     </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452"/>
+    </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:L18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:L19"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:L15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:L16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:L17"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:L10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:L11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:N2"/>
-    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="D5:L5"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="36" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:L8"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="15.25" customWidth="1"/>
     <col min="13" max="13" width="21.125" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="23" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="1" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="12">
+      <c r="P2" s="54">
         <v>44501</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="2" t="s">
+    <row r="3" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P3" s="57">
         <v>44501</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" t="s">
+      <c r="Q3" s="58"/>
+      <c r="R3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="7" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q5" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
+    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="48"/>
+      <c r="B6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="7" t="s">
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N6" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P6" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q6" s="47" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
+    <row r="7" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="34"/>
-    </row>
-    <row r="7" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35">
+      <c r="C7" s="24"/>
+      <c r="D7" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="40"/>
-    </row>
-    <row r="8" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="40"/>
-    </row>
-    <row r="9" spans="1:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="1:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="40"/>
-    </row>
-    <row r="10" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="35">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>5</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="40"/>
-    </row>
-    <row r="11" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="35">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>6</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="40"/>
-    </row>
-    <row r="12" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="40"/>
-    </row>
-    <row r="13" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="40"/>
-    </row>
-    <row r="14" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="35">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>9</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="40"/>
-    </row>
-    <row r="15" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>10</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="40"/>
-    </row>
-    <row r="16" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>11</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="40"/>
-    </row>
-    <row r="17" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>12</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="40"/>
-    </row>
-    <row r="18" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="35">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>13</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="40"/>
-    </row>
-    <row r="19" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="35">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>14</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="40"/>
-    </row>
-    <row r="20" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="35">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>15</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="40"/>
-    </row>
-    <row r="21" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35">
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>16</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B22" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="40"/>
-    </row>
-    <row r="22" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>17</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B23" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="40"/>
-    </row>
-    <row r="23" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="35">
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="12"/>
+    </row>
+    <row r="24" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>18</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B24" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="40"/>
-    </row>
-    <row r="24" spans="1:17" ht="343.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" spans="1:17" ht="343.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>19</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B25" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="32">
-        <v>44622</v>
-      </c>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="40"/>
-    </row>
-    <row r="25" spans="1:17" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35">
+      <c r="C25" s="19"/>
+      <c r="D25" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="12"/>
+    </row>
+    <row r="26" spans="1:17" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>20</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B26" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37" t="s">
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="12"/>
+    </row>
+    <row r="27" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>21</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="40"/>
-    </row>
-    <row r="26" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35">
-        <v>21</v>
-      </c>
-      <c r="B26" s="36" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37" t="s">
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="12"/>
+    </row>
+    <row r="28" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>22</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="40"/>
-    </row>
-    <row r="27" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35">
-        <v>22</v>
-      </c>
-      <c r="B27" s="36" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37" t="s">
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="12"/>
+    </row>
+    <row r="29" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>23</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="40"/>
-    </row>
-    <row r="28" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35">
-        <v>23</v>
-      </c>
-      <c r="B28" s="36" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37" t="s">
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="12"/>
+    </row>
+    <row r="30" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>24</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="40"/>
-    </row>
-    <row r="29" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35">
-        <v>24</v>
-      </c>
-      <c r="B29" s="36" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37" t="s">
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="12"/>
+    </row>
+    <row r="31" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>25</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="40"/>
-    </row>
-    <row r="30" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35">
-        <v>25</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="40"/>
-    </row>
-    <row r="31" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35">
+      <c r="C31" s="19"/>
+      <c r="D31" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="12"/>
+    </row>
+    <row r="32" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
         <v>26</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37" t="s">
+      <c r="B32" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="41">
-        <v>44624</v>
-      </c>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="40"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:N2"/>
-    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:L8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:L15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:L16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="D26:L26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D24:L24"/>
     <mergeCell ref="D20:L20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D25:L25"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D30:L30"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D31:L31"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:L29"/>
     <mergeCell ref="D28:L28"/>
-    <mergeCell ref="D27:L27"/>
-    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D30:L30"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D29:L29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="D26:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="44" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:L8"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="27.375" customWidth="1"/>
+    <col min="12" max="12" width="40.75" customWidth="1"/>
     <col min="13" max="13" width="21.125" customWidth="1"/>
-    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="15" max="15" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="1" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="12">
+      <c r="P2" s="54">
         <v>44501</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="2" t="s">
+    <row r="3" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P3" s="57">
         <v>44501</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" t="s">
+      <c r="Q3" s="58"/>
+      <c r="R3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B5" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="7" t="s">
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q5" s="66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
+    <row r="6" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="67"/>
+      <c r="B6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="7" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P6" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q6" s="66" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="51">
+    <row r="7" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
         <v>1</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="56">
-        <v>44623</v>
-      </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="34"/>
-    </row>
-    <row r="7" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35">
+      <c r="C7" s="37"/>
+      <c r="D7" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="40"/>
-    </row>
-    <row r="8" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="40"/>
-    </row>
-    <row r="9" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="40"/>
-    </row>
-    <row r="10" spans="1:18" ht="201.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:18" ht="162" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>5</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="59" t="s">
         <v>54</v>
-      </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="40"/>
-    </row>
-    <row r="11" spans="1:18" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35">
-        <v>6</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59" t="s">
-        <v>55</v>
       </c>
       <c r="E11" s="60"/>
       <c r="F11" s="60"/>
@@ -4481,26 +4477,26 @@
       <c r="J11" s="60"/>
       <c r="K11" s="60"/>
       <c r="L11" s="61"/>
-      <c r="M11" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="40"/>
-    </row>
-    <row r="12" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35">
-        <v>7</v>
-      </c>
-      <c r="B12" s="57" t="s">
+      <c r="M11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="1:18" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>6</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="60"/>
       <c r="F12" s="60"/>
@@ -4510,686 +4506,714 @@
       <c r="J12" s="60"/>
       <c r="K12" s="60"/>
       <c r="L12" s="61"/>
-      <c r="M12" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="40"/>
-    </row>
-    <row r="13" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35">
+      <c r="M12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>7</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B14" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="40"/>
-    </row>
-    <row r="14" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>9</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B15" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="40"/>
-    </row>
-    <row r="15" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35">
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>10</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B16" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="40"/>
-    </row>
-    <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>11</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="40"/>
-    </row>
-    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>12</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B18" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="40"/>
-    </row>
-    <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>13</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="40"/>
-    </row>
-    <row r="19" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>14</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="40"/>
-    </row>
-    <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35">
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>15</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B21" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="40"/>
-    </row>
-    <row r="21" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35">
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>16</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B22" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="40"/>
-    </row>
-    <row r="22" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>17</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B23" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="40"/>
-    </row>
-    <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35">
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="12"/>
+    </row>
+    <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>18</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B24" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="40"/>
-    </row>
-    <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>19</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B25" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="40"/>
-    </row>
-    <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35">
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="12"/>
+    </row>
+    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>20</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B26" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36" t="s">
+      <c r="C26" s="19"/>
+      <c r="D26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="40"/>
-    </row>
-    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35">
-        <v>21</v>
-      </c>
-      <c r="B26" s="36" t="s">
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="12"/>
+    </row>
+    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>21</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="40"/>
-    </row>
-    <row r="27" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35">
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="12"/>
+    </row>
+    <row r="28" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
         <v>22</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="40"/>
-    </row>
-    <row r="28" spans="1:17" ht="343.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35">
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="12"/>
+    </row>
+    <row r="29" spans="1:17" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>23</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B29" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="63">
-        <v>44623</v>
-      </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="40"/>
-    </row>
-    <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35">
+      <c r="C29" s="32"/>
+      <c r="D29" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="12"/>
+    </row>
+    <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
         <v>24</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B30" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36" t="s">
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="12"/>
+    </row>
+    <row r="31" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>25</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="65">
-        <v>44654</v>
-      </c>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="40"/>
-    </row>
-    <row r="30" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35">
-        <v>25</v>
-      </c>
-      <c r="B30" s="36" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36" t="s">
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="12"/>
+    </row>
+    <row r="32" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>26</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="65">
-        <v>44654</v>
-      </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="40"/>
-    </row>
-    <row r="31" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35">
-        <v>26</v>
-      </c>
-      <c r="B31" s="36" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36" t="s">
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="12"/>
+    </row>
+    <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>27</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="65">
-        <v>44654</v>
-      </c>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="40"/>
-    </row>
-    <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35">
-        <v>27</v>
-      </c>
-      <c r="B32" s="36" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36" t="s">
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="12"/>
+    </row>
+    <row r="34" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>28</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="65">
-        <v>44654</v>
-      </c>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="40"/>
-    </row>
-    <row r="33" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35">
-        <v>28</v>
-      </c>
-      <c r="B33" s="36" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36" t="s">
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="12"/>
+    </row>
+    <row r="35" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>29</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="65">
-        <v>44654</v>
-      </c>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="40"/>
-    </row>
-    <row r="34" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35">
-        <v>29</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="65">
-        <v>44654</v>
-      </c>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="40"/>
-    </row>
-    <row r="35" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="35">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="12"/>
+    </row>
+    <row r="36" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
         <v>30</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36" t="s">
+      <c r="B36" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="65">
-        <v>44654</v>
-      </c>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="40"/>
-    </row>
-    <row r="36" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="12"/>
+    </row>
+    <row r="37" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5222,80 +5246,81 @@
     <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="70" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="D27:L27"/>
     <mergeCell ref="D28:L28"/>
+    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:L24"/>
-    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:L20"/>
     <mergeCell ref="D17:L17"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D18:L18"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:L13"/>
     <mergeCell ref="D15:L15"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D8:L8"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:N2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:L5"/>
-    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
     <mergeCell ref="D10:L10"/>
     <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:L21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:L22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D32:L32"/>
-    <mergeCell ref="D34:L34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:L26"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:L34"/>
+    <mergeCell ref="D36:L36"/>
     <mergeCell ref="D30:L30"/>
     <mergeCell ref="D31:L31"/>
+    <mergeCell ref="D32:L32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="39" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/admin/Aung_Admin_Product.xlsx
+++ b/admin/Aung_Admin_Product.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Admin_Product_list" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="107">
-  <si>
-    <t>Project Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="108">
   <si>
     <t>Create Date</t>
   </si>
@@ -282,18 +279,7 @@
 When admin click one of category delete button plus sign box back to appear.</t>
   </si>
   <si>
-    <t xml:space="preserve">When user access this address  http://127.0.0.1:8000/productList this page will show.
-</t>
-  </si>
-  <si>
     <t>Avaliable product background color is green.</t>
-  </si>
-  <si>
-    <t>When user access this address http://127.0.0.1:8000/product/id/edit page will show. 
-If id is not exist this page will go to error page.</t>
-  </si>
-  <si>
-    <t>When admin access this address  http://127.0.0.1:8000/product this page will show.</t>
   </si>
   <si>
     <t>add button</t>
@@ -312,52 +298,28 @@
     <t>Dashboard</t>
   </si>
   <si>
-    <t>When admin click to this label,page will transfer to http://127.0.0.1:8000/dashboard</t>
-  </si>
-  <si>
     <t>Transaction</t>
   </si>
   <si>
-    <t>When admin click to this label,page will transfer to http://127.0.0.1:8000/orderTransaction</t>
-  </si>
-  <si>
     <t>Customer</t>
   </si>
   <si>
-    <t>When admin click to this label,page will transfer to http://127.0.0.1:8000/customerInfo</t>
-  </si>
-  <si>
     <t>Coin</t>
   </si>
   <si>
-    <t>When admin click to this label, page will transfer to http://127.0.0.1:8000/coinListing</t>
-  </si>
-  <si>
     <t>Finance</t>
   </si>
   <si>
-    <t>When admin click to this label,page will transfer to http://127.0.0.1:8000/dailyChart</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
     <t>When admin click to this label,page will reoad and no transfer to other page.</t>
   </si>
   <si>
-    <t>When admin click to this label,page will transfer to http://127.0.0.1:8000/adminLogin</t>
-  </si>
-  <si>
     <t>Setting</t>
   </si>
   <si>
     <t>Logout button</t>
-  </si>
-  <si>
-    <t>When admin click to this button, page will transfer to http://127.0.0.1:8000/admin and relogin.</t>
-  </si>
-  <si>
-    <t>When admin click to this label,page will transfer to http://127.0.0.1:8000/productList.</t>
   </si>
   <si>
     <t>Product table list will show following sql qurey;
@@ -394,9 +356,6 @@
             -&gt;where('m_product.del_flg', 0)
             -&gt;orderBy('avaliable','DESC')
             -&gt;paginate(10);</t>
-  </si>
-  <si>
-    <t>Food Lab</t>
   </si>
   <si>
     <t xml:space="preserve">After filling and editing all form data,admin click this button data update with following sql qurey;
@@ -444,6 +403,50 @@
   </si>
   <si>
     <t>2022/03/03</t>
+  </si>
+  <si>
+    <t>When user access this address http://www.website.com/product/id/edit page will show. 
+If id is not exist this page will go to error page.</t>
+  </si>
+  <si>
+    <t>When admin click to this label,page will transfer to http://www.website.com/dashboard</t>
+  </si>
+  <si>
+    <t>When admin click to this label,page will transfer to http://www.website.com/orderTransaction</t>
+  </si>
+  <si>
+    <t>When admin click to this label,page will transfer to http://www.website.com/customerInfo</t>
+  </si>
+  <si>
+    <t>When admin click to this label, page will transfer to http://www.website.com/coinListing</t>
+  </si>
+  <si>
+    <t>When admin click to this label,page will transfer to http://www.website.com/dailyChart</t>
+  </si>
+  <si>
+    <t>When admin click to this label,page will transfer to http://www.website.com/productList.</t>
+  </si>
+  <si>
+    <t>When admin click to this label,page will transfer to http://www.website.com/adminLogin</t>
+  </si>
+  <si>
+    <t>When admin access this address  http://www.website.com/product this page will show.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user access this address  http://www.website.com/productList this page will show.
+</t>
+  </si>
+  <si>
+    <t>When admin click to this button, page will transfer to http://www.website.com/admin and relogin.</t>
+  </si>
+  <si>
+    <t>2022/03/01</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Food Lab(Admin)</t>
   </si>
 </sst>
 </file>
@@ -797,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -807,64 +810,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -875,90 +897,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -968,35 +912,80 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,7 +1303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R452"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="L1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1331,59 +1320,59 @@
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:18" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="42" t="s">
+      <c r="A2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="53" t="s">
+      <c r="P2" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="18"/>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="54">
-        <v>44501</v>
-      </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="57">
-        <v>44501</v>
-      </c>
-      <c r="Q3" s="58"/>
+      <c r="P3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" s="20"/>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1405,467 +1394,467 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="2"/>
       <c r="R4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="65" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="O5" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
-        <v>1</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="14" t="s">
+      <c r="B7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="71" t="s">
-        <v>105</v>
+      <c r="C7" s="25"/>
+      <c r="D7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
     </row>
-    <row r="8" spans="1:18" ht="172.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+    <row r="8" spans="1:18" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="14" t="s">
+      <c r="B8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="71" t="s">
-        <v>105</v>
+      <c r="C8" s="25"/>
+      <c r="D8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+    <row r="9" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="14" t="s">
+      <c r="B9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="71" t="s">
-        <v>105</v>
+      <c r="C9" s="25"/>
+      <c r="D9" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="71" t="s">
-        <v>105</v>
+      <c r="B10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+    <row r="11" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="71" t="s">
-        <v>105</v>
+      <c r="B11" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+    <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53">
         <v>6</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="B12" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+    </row>
+    <row r="13" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="71" t="s">
-        <v>105</v>
+      <c r="B13" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+    <row r="14" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="71" t="s">
-        <v>105</v>
+      <c r="B14" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+    <row r="15" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="71" t="s">
-        <v>105</v>
+      <c r="B15" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+    <row r="16" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="71" t="s">
-        <v>105</v>
+      <c r="B16" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+    <row r="17" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="21" t="s">
+      <c r="B17" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="52" t="s">
         <v>92</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="71" t="s">
-        <v>105</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+    <row r="18" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="71" t="s">
-        <v>105</v>
+      <c r="B18" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+    <row r="19" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="71" t="s">
-        <v>105</v>
+      <c r="B19" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -1877,25 +1866,25 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
@@ -1907,31 +1896,31 @@
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1" ht="362.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="362.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
@@ -3170,10 +3159,10 @@
     <mergeCell ref="D17:L17"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
@@ -3199,7 +3188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3207,909 +3196,909 @@
     <col min="13" max="13" width="21.125" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
     <col min="15" max="15" width="15.5" customWidth="1"/>
-    <col min="16" max="16" width="11.625" customWidth="1"/>
+    <col min="16" max="17" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="18"/>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" s="20"/>
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="41" t="s">
+      <c r="B5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="53" t="s">
+      <c r="O5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
         <v>1</v>
       </c>
-      <c r="P2" s="54">
-        <v>44501</v>
-      </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="56" t="s">
+      <c r="B7" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="45"/>
+    </row>
+    <row r="8" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46">
         <v>2</v>
       </c>
-      <c r="P3" s="57">
-        <v>44501</v>
-      </c>
-      <c r="Q3" s="58"/>
-      <c r="R3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="B8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>2</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="70" t="s">
-        <v>104</v>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="12"/>
-    </row>
-    <row r="9" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="Q8" s="48"/>
+    </row>
+    <row r="9" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46">
         <v>3</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="10" t="s">
+      <c r="B9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="70" t="s">
-        <v>104</v>
+      <c r="C9" s="25"/>
+      <c r="D9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="12"/>
-    </row>
-    <row r="10" spans="1:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="Q9" s="48"/>
+    </row>
+    <row r="10" spans="1:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46">
         <v>4</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="10" t="s">
+      <c r="B10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="70" t="s">
-        <v>104</v>
+      <c r="C10" s="25"/>
+      <c r="D10" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="12"/>
-    </row>
-    <row r="11" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="Q10" s="48"/>
+    </row>
+    <row r="11" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="46">
         <v>5</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="70" t="s">
-        <v>104</v>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="12"/>
-    </row>
-    <row r="12" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="Q11" s="48"/>
+    </row>
+    <row r="12" spans="1:18" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46">
         <v>6</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="70" t="s">
-        <v>104</v>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="12"/>
-    </row>
-    <row r="13" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="Q12" s="48"/>
+    </row>
+    <row r="13" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46">
         <v>7</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="70" t="s">
-        <v>104</v>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="12"/>
-    </row>
-    <row r="14" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="Q13" s="48"/>
+    </row>
+    <row r="14" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46">
         <v>8</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="70" t="s">
-        <v>104</v>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="12"/>
-    </row>
-    <row r="15" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="Q14" s="48"/>
+    </row>
+    <row r="15" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="46">
         <v>9</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="70" t="s">
-        <v>104</v>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="12"/>
-    </row>
-    <row r="16" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="Q15" s="48"/>
+    </row>
+    <row r="16" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="46">
         <v>10</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="70" t="s">
-        <v>104</v>
+      <c r="B16" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="12"/>
-    </row>
-    <row r="17" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="Q16" s="48"/>
+    </row>
+    <row r="17" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46">
         <v>11</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="70" t="s">
-        <v>104</v>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="12"/>
-    </row>
-    <row r="18" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="Q17" s="48"/>
+    </row>
+    <row r="18" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="46">
         <v>12</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="70" t="s">
-        <v>104</v>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="12"/>
-    </row>
-    <row r="19" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="Q18" s="48"/>
+    </row>
+    <row r="19" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="46">
         <v>13</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="70" t="s">
-        <v>104</v>
+      <c r="B19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="12"/>
-    </row>
-    <row r="20" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="Q19" s="48"/>
+    </row>
+    <row r="20" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="46">
         <v>14</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="70" t="s">
-        <v>104</v>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="12"/>
-    </row>
-    <row r="21" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="Q20" s="48"/>
+    </row>
+    <row r="21" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="46">
         <v>15</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="70" t="s">
-        <v>104</v>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="12"/>
-    </row>
-    <row r="22" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="Q21" s="48"/>
+    </row>
+    <row r="22" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46">
         <v>16</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="70" t="s">
-        <v>104</v>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="12"/>
-    </row>
-    <row r="23" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="Q22" s="48"/>
+    </row>
+    <row r="23" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="46">
         <v>17</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="70" t="s">
-        <v>104</v>
+      <c r="B23" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="12"/>
-    </row>
-    <row r="24" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="Q23" s="48"/>
+    </row>
+    <row r="24" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="46">
         <v>18</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="70" t="s">
-        <v>104</v>
+      <c r="B24" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="12"/>
-    </row>
-    <row r="25" spans="1:17" ht="343.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="Q24" s="48"/>
+    </row>
+    <row r="25" spans="1:17" ht="343.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="46">
         <v>19</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="70" t="s">
-        <v>104</v>
+      <c r="B25" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="12"/>
-    </row>
-    <row r="26" spans="1:17" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>20</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="70" t="s">
-        <v>105</v>
+      <c r="Q25" s="48"/>
+    </row>
+    <row r="26" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="46">
+        <v>20</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="12"/>
-    </row>
-    <row r="27" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="Q26" s="48"/>
+    </row>
+    <row r="27" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="46">
         <v>21</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="70" t="s">
-        <v>105</v>
+      <c r="B27" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="12"/>
-    </row>
-    <row r="28" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="Q27" s="48"/>
+    </row>
+    <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="46">
         <v>22</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="70" t="s">
-        <v>105</v>
+      <c r="B28" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="12"/>
-    </row>
-    <row r="29" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+      <c r="Q28" s="48"/>
+    </row>
+    <row r="29" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="46">
         <v>23</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="70" t="s">
-        <v>105</v>
+      <c r="B29" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
-      <c r="Q29" s="12"/>
-    </row>
-    <row r="30" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="Q29" s="48"/>
+    </row>
+    <row r="30" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="46">
         <v>24</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="27" t="s">
+      <c r="B30" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="44" t="s">
         <v>92</v>
-      </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="70" t="s">
-        <v>105</v>
       </c>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
-      <c r="Q30" s="12"/>
-    </row>
-    <row r="31" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="Q30" s="48"/>
+    </row>
+    <row r="31" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="46">
         <v>25</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="70" t="s">
-        <v>105</v>
+      <c r="B31" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="12"/>
-    </row>
-    <row r="32" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="Q31" s="48"/>
+    </row>
+    <row r="32" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="46">
         <v>26</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="70" t="s">
-        <v>105</v>
+      <c r="B32" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
-      <c r="Q32" s="12"/>
+      <c r="Q32" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="62">
@@ -4177,7 +4166,7 @@
     <mergeCell ref="D26:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="44" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup scale="42" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4185,1032 +4174,1034 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="40.75" customWidth="1"/>
     <col min="13" max="13" width="21.125" customWidth="1"/>
     <col min="14" max="14" width="16.875" customWidth="1"/>
-    <col min="15" max="15" width="12.625" customWidth="1"/>
+    <col min="15" max="15" width="16.75" customWidth="1"/>
+    <col min="16" max="16" width="15.375" customWidth="1"/>
+    <col min="17" max="17" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="18"/>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" s="20"/>
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="53" t="s">
+      <c r="B5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
         <v>1</v>
       </c>
-      <c r="P2" s="54">
-        <v>44501</v>
-      </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="56" t="s">
+      <c r="B7" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="45"/>
+    </row>
+    <row r="8" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46">
         <v>2</v>
       </c>
-      <c r="P3" s="57">
-        <v>44501</v>
-      </c>
-      <c r="Q3" s="58"/>
-      <c r="R3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
-        <v>1</v>
-      </c>
-      <c r="B7" s="36" t="s">
+      <c r="B8" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>2</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="70" t="s">
-        <v>106</v>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="12"/>
-    </row>
-    <row r="9" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="Q8" s="48"/>
+    </row>
+    <row r="9" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46">
         <v>3</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="18" t="s">
+      <c r="B9" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="70" t="s">
-        <v>106</v>
+      <c r="C9" s="61"/>
+      <c r="D9" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="12"/>
-    </row>
-    <row r="10" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="Q9" s="48"/>
+    </row>
+    <row r="10" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46">
         <v>4</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="18" t="s">
+      <c r="B10" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="70" t="s">
-        <v>106</v>
+      <c r="C10" s="61"/>
+      <c r="D10" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="12"/>
-    </row>
-    <row r="11" spans="1:18" ht="162" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="Q10" s="48"/>
+    </row>
+    <row r="11" spans="1:18" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46">
         <v>5</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="18" t="s">
+      <c r="B11" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="70" t="s">
-        <v>106</v>
+      <c r="C11" s="61"/>
+      <c r="D11" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="12"/>
-    </row>
-    <row r="12" spans="1:18" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="Q11" s="48"/>
+    </row>
+    <row r="12" spans="1:18" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46">
         <v>6</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="18" t="s">
+      <c r="B12" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="70" t="s">
-        <v>106</v>
+      <c r="C12" s="61"/>
+      <c r="D12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="12"/>
-    </row>
-    <row r="13" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="Q12" s="48"/>
+    </row>
+    <row r="13" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46">
         <v>7</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="18" t="s">
+      <c r="B13" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="70" t="s">
-        <v>106</v>
+      <c r="C13" s="61"/>
+      <c r="D13" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="12"/>
-    </row>
-    <row r="14" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="Q13" s="48"/>
+    </row>
+    <row r="14" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46">
         <v>8</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="70" t="s">
-        <v>106</v>
+      <c r="B14" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="12"/>
-    </row>
-    <row r="15" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="Q14" s="48"/>
+    </row>
+    <row r="15" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46">
         <v>9</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="70" t="s">
-        <v>106</v>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="12"/>
-    </row>
-    <row r="16" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="Q15" s="48"/>
+    </row>
+    <row r="16" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="46">
         <v>10</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="70" t="s">
-        <v>106</v>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="12"/>
-    </row>
-    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="Q16" s="48"/>
+    </row>
+    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46">
         <v>11</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="70" t="s">
-        <v>106</v>
+      <c r="B17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="12"/>
-    </row>
-    <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="Q17" s="48"/>
+    </row>
+    <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="46">
         <v>12</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="70" t="s">
-        <v>106</v>
+      <c r="B18" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="12"/>
-    </row>
-    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="Q18" s="48"/>
+    </row>
+    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="46">
         <v>13</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="70" t="s">
-        <v>106</v>
+      <c r="B19" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="12"/>
-    </row>
-    <row r="20" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="Q19" s="48"/>
+    </row>
+    <row r="20" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="46">
         <v>14</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="70" t="s">
-        <v>106</v>
+      <c r="B20" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="12"/>
-    </row>
-    <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="Q20" s="48"/>
+    </row>
+    <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="46">
         <v>15</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="70" t="s">
-        <v>106</v>
+      <c r="B21" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="12"/>
-    </row>
-    <row r="22" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="Q21" s="48"/>
+    </row>
+    <row r="22" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46">
         <v>16</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="70" t="s">
-        <v>106</v>
+      <c r="B22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="12"/>
-    </row>
-    <row r="23" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="Q22" s="48"/>
+    </row>
+    <row r="23" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="46">
         <v>17</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="70" t="s">
-        <v>106</v>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="12"/>
-    </row>
-    <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="Q23" s="48"/>
+    </row>
+    <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="46">
         <v>18</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="70" t="s">
-        <v>106</v>
+      <c r="B24" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="12"/>
-    </row>
-    <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="Q24" s="48"/>
+    </row>
+    <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="46">
         <v>19</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="70" t="s">
-        <v>106</v>
+      <c r="B25" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="12"/>
-    </row>
-    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>20</v>
-      </c>
-      <c r="B26" s="19" t="s">
+      <c r="Q25" s="48"/>
+    </row>
+    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="46">
+        <v>20</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="70" t="s">
-        <v>106</v>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="12"/>
-    </row>
-    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="Q26" s="48"/>
+    </row>
+    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="46">
         <v>21</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="70" t="s">
-        <v>106</v>
+      <c r="B27" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="12"/>
-    </row>
-    <row r="28" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="Q27" s="48"/>
+    </row>
+    <row r="28" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="46">
         <v>22</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="70" t="s">
-        <v>106</v>
+      <c r="B28" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="12"/>
-    </row>
-    <row r="29" spans="1:17" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+      <c r="Q28" s="48"/>
+    </row>
+    <row r="29" spans="1:17" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="46">
         <v>23</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="70" t="s">
-        <v>106</v>
+      <c r="B29" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="61"/>
+      <c r="D29" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
-      <c r="Q29" s="12"/>
-    </row>
-    <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="Q29" s="48"/>
+    </row>
+    <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="46">
         <v>24</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="70" t="s">
-        <v>105</v>
+      <c r="B30" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
-      <c r="Q30" s="12"/>
-    </row>
-    <row r="31" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="Q30" s="48"/>
+    </row>
+    <row r="31" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="46">
         <v>25</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="70" t="s">
-        <v>105</v>
+      <c r="B31" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="12"/>
-    </row>
-    <row r="32" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="Q31" s="48"/>
+    </row>
+    <row r="32" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="46">
         <v>26</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="70" t="s">
-        <v>105</v>
+      <c r="B32" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
-      <c r="Q32" s="12"/>
-    </row>
-    <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="Q32" s="48"/>
+    </row>
+    <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="46">
         <v>27</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="70" t="s">
-        <v>105</v>
+      <c r="B33" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
-      <c r="Q33" s="12"/>
-    </row>
-    <row r="34" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+      <c r="Q33" s="48"/>
+    </row>
+    <row r="34" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="46">
         <v>28</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19" t="s">
+      <c r="B34" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="44" t="s">
         <v>92</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="70" t="s">
-        <v>105</v>
       </c>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
-      <c r="Q34" s="12"/>
-    </row>
-    <row r="35" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="Q34" s="48"/>
+    </row>
+    <row r="35" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="46">
         <v>29</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="70" t="s">
-        <v>105</v>
+      <c r="B35" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
-      <c r="Q35" s="12"/>
-    </row>
-    <row r="36" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+      <c r="Q35" s="48"/>
+    </row>
+    <row r="36" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="46">
         <v>30</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="70" t="s">
-        <v>105</v>
+      <c r="B36" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
-      <c r="Q36" s="12"/>
+      <c r="Q36" s="48"/>
     </row>
     <row r="37" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5321,6 +5312,6 @@
     <mergeCell ref="D32:L32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="39" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup scale="35" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>